--- a/biology/Botanique/Square_Olga-Bancic/Square_Olga-Bancic.xlsx
+++ b/biology/Botanique/Square_Olga-Bancic/Square_Olga-Bancic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Olga-Bancic est un espace vert du 11e arrondissement de Paris, dans le quartier de la Roquette.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par les 32-34, rue Godefroy-Cavaignac.
 Il est desservi par la ligne 9 à la station Voltaire.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square rend honneur à la résistante Olga Bancic (1912-1944), soldat volontaire des FTP-MOI de la région parisienne, réseau plus connu sous le nom de Groupe Manouchian[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square rend honneur à la résistante Olga Bancic (1912-1944), soldat volontaire des FTP-MOI de la région parisienne, réseau plus connu sous le nom de Groupe Manouchian,.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Autrefois nommé « square Godefroy-Cavaignac » en raison de la rue sur laquelle il donne, il a été renommé en 2013 square Olga-Bancic.
 </t>
